--- a/docs/视力检查-06筛查仪数据协议（2018-03-12）.xlsx
+++ b/docs/视力检查-06筛查仪数据协议（2018-03-12）.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhen/Documents/Dev/vision/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32080558-D64C-124C-8603-AD1C5BB81EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D4E24-375E-B644-8E41-0F514AAFD997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22280" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28300" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通讯协议" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
   <si>
     <t>数据传输协议（低---高）：</t>
   </si>
@@ -478,13 +479,67 @@
   </si>
   <si>
     <t>3、机器重启之后，确认右上角wifi图标是否连接，连接成功即可筛查。</t>
+  </si>
+  <si>
+    <t>屈光度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>散光度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远视</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>近视</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,999999999999999999,2,2,20190307,213400,1,51,5.2,-4.50,-3.75,-1.50,164,-4.50,-5.25,+1.50,074,69,00.0,+04,+05,用户ID,图形文件ID</t>
+  </si>
+  <si>
+    <t>5.2,-4.50,-3.75,-1.50,164,-4.50,-5.25,+1.50,074,69,00.0,+04,+05</t>
+  </si>
+  <si>
+    <t>cyl-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyl+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合光度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞳距</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>球面度+柱面度/2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +597,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -551,7 +620,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -691,13 +760,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +904,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,8 +1475,8 @@
   </sheetPr>
   <dimension ref="F1:S1166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView showGridLines="0" topLeftCell="B36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2098,12 +2196,20 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="I51" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="M51" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
@@ -2114,6 +2220,18 @@
       <c r="F52" s="30" t="s">
         <v>139</v>
       </c>
+      <c r="H52" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
     </row>
     <row r="53" spans="6:19" ht="20" customHeight="1">
       <c r="F53" s="11"/>
@@ -3521,7 +3639,9 @@
     <row r="1165" ht="20" customHeight="1"/>
     <row r="1166" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="H52:K52"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F11:M11"/>
@@ -3571,4 +3691,178 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ED70F4-838E-2C4C-BBE5-B88627A36ABE}">
+  <dimension ref="C10:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="3:14">
+      <c r="C10" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15">
+      <c r="E15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15">
+      <c r="E16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17">
+        <v>5.2</v>
+      </c>
+      <c r="F17">
+        <v>-4.5</v>
+      </c>
+      <c r="G17">
+        <v>-3.75</v>
+      </c>
+      <c r="H17">
+        <v>-1.5</v>
+      </c>
+      <c r="I17">
+        <v>164</v>
+      </c>
+      <c r="J17">
+        <v>-4.5</v>
+      </c>
+      <c r="K17">
+        <v>-5.25</v>
+      </c>
+      <c r="L17">
+        <v>1.5</v>
+      </c>
+      <c r="M17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="F18" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="F19" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="F20" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="F21" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/视力检查-06筛查仪数据协议（2018-03-12）.xlsx
+++ b/docs/视力检查-06筛查仪数据协议（2018-03-12）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhen/Documents/Dev/vision/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D4E24-375E-B644-8E41-0F514AAFD997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3CC785-3F98-C64C-80FC-56F4D5B44AAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28300" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,13 +611,46 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -777,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +911,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,22 +947,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,11 +1558,11 @@
     </row>
     <row r="4" spans="6:15" ht="20" customHeight="1"/>
     <row r="5" spans="6:15" ht="20" customHeight="1">
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="6:15" ht="20" customHeight="1"/>
     <row r="7" spans="6:15" ht="20" customHeight="1">
@@ -1582,66 +1630,66 @@
       </c>
     </row>
     <row r="9" spans="6:15" ht="20" customHeight="1">
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="6:15" ht="20" customHeight="1">
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="41"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="6:15" ht="20" customHeight="1">
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="40"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="6:15" ht="20" customHeight="1">
       <c r="F12" s="3"/>
@@ -1667,7 +1715,7 @@
       <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="6:15" ht="20" customHeight="1">
       <c r="F15" s="4" t="s">
@@ -1682,7 +1730,7 @@
       <c r="K15" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="34"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="6:15" ht="20" customHeight="1">
       <c r="F16" s="4" t="s">
@@ -2220,18 +2268,18 @@
       <c r="F52" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43" t="s">
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
     </row>
     <row r="53" spans="6:19" ht="20" customHeight="1">
       <c r="F53" s="11"/>
@@ -3698,7 +3746,7 @@
   <dimension ref="C10:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3707,7 +3755,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="3:14">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="34" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3717,149 +3765,160 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="15">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17">
+      <c r="E17" s="48">
         <v>5.2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="48">
         <v>-4.5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="48">
         <v>-3.75</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="48">
         <v>-1.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="48">
         <v>164</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="51">
         <v>-4.5</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="51">
         <v>-5.25</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="51">
         <v>1.5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="51">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="5:13">
-      <c r="F18" s="45" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45" t="s">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="52" t="s">
         <v>157</v>
       </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="5:13">
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="53" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="5:13">
-      <c r="F20" s="48" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
